--- a/GA05MOAS-GL493/Omaha_Cal_Info_GA05MOAS-GL493_00001.xlsx
+++ b/GA05MOAS-GL493/Omaha_Cal_Info_GA05MOAS-GL493_00001.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377"/>
+    <workbookView xWindow="5520" yWindow="6720" windowWidth="27120" windowHeight="10360" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$A$1:$J$104</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,9 +111,6 @@
     <t>42° 27.3557' W</t>
   </si>
   <si>
-    <t>AT26-30</t>
-  </si>
-  <si>
     <t>GA05MOAS-GL493</t>
   </si>
   <si>
@@ -122,13 +124,34 @@
   </si>
   <si>
     <t>GA05MOAS-GL493-00-ENG000000</t>
+  </si>
+  <si>
+    <r>
+      <t>AT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>26-30</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -186,6 +209,38 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -267,23 +322,26 @@
     <border>
       <left/>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -324,11 +382,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 5 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,27 +764,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E1:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="37.85546875"/>
-    <col min="2" max="2" width="39.42578125"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125"/>
-    <col min="7" max="7" width="18.7109375"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875"/>
-    <col min="10" max="10" width="12.7109375"/>
-    <col min="11" max="11" width="29.7109375" customWidth="1"/>
-    <col min="12" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="1026" width="8.7109375"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" customWidth="1"/>
+    <col min="12" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -755,9 +814,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="8">
         <v>493</v>
@@ -782,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2" s="13">
@@ -794,17 +853,22 @@
         <v>-42.455928333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -812,23 +876,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="1019" width="8.7109375"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -848,9 +911,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="5" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="5">
         <v>493</v>
@@ -871,9 +934,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="5" customFormat="1">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5">
         <v>493</v>
@@ -894,9 +957,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="5" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="5">
         <v>493</v>
@@ -910,16 +973,16 @@
       <c r="E4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.1299999999999999</v>
+      <c r="F4" s="14">
+        <v>1.0960000000000001</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>493</v>
@@ -940,16 +1003,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="5" customFormat="1">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="5" customFormat="1">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5">
         <v>493</v>
@@ -965,16 +1028,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="5" customFormat="1">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="5" customFormat="1">
       <c r="A9" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
         <v>493</v>
@@ -990,16 +1053,16 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="5" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="5" customFormat="1">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5">
         <v>493</v>
@@ -1015,7 +1078,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="5" customFormat="1">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1024,6 +1087,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>